--- a/nuoc-uong.xlsx
+++ b/nuoc-uong.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Nam4HK1\python\project_ck\product_Manager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Nam4HK1\python\cuoi_ky\product_Manager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF41A9D-E2FC-4C6A-8179-C1E0C2B6EA5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC9EFEE-DC11-44C4-9FB7-742B85D4A0C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{52E7B99A-DDB2-49BF-B327-1D85DDEF2AB0}"/>
   </bookViews>
@@ -423,7 +423,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
-      <selection sqref="A1:K13"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -887,7 +887,7 @@
         <v>882</v>
       </c>
       <c r="K13">
-        <v>956</v>
+        <v>953</v>
       </c>
     </row>
   </sheetData>
